--- a/data/Prelim_Results/sept26_record.xlsx
+++ b/data/Prelim_Results/sept26_record.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="case4gs" sheetId="4" r:id="rId1"/>
     <sheet name="2-6.6" sheetId="2" r:id="rId2"/>
-    <sheet name="3-12.9" sheetId="3" r:id="rId3"/>
-    <sheet name="4-19.2" sheetId="5" r:id="rId4"/>
+    <sheet name="4-6.6" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="3-12.9" sheetId="3" r:id="rId5"/>
+    <sheet name="4-19.2" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
   <si>
     <t>Slack Bus</t>
   </si>
@@ -57,6 +59,27 @@
   </si>
   <si>
     <t>Branch Flow Mag [Amp]</t>
+  </si>
+  <si>
+    <t>EV Load [kW]</t>
+  </si>
+  <si>
+    <t>Home Load [kW]</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Line 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Line 2 </t>
+  </si>
+  <si>
+    <t>Line 3</t>
+  </si>
+  <si>
+    <t>Line 4</t>
   </si>
 </sst>
 </file>
@@ -88,7 +111,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -111,11 +134,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -123,9 +174,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -141,6 +205,4232 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Home Load</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'2-6.6'!$Q$6:$Q$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2-6.6'!$V$6:$V$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>8.2573000000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.055498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9639160000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4289129999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.950539</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8944039999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1234000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92063300000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8253129999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3838869999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0146600000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5577220000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.8992439999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.3575140000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.0458499999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.409089999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.8237500000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.449480000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.043980000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.3049801999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.876205000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.331329999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.8719539999999988</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.9089929999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F4E-4C81-8606-3EABC73F3C0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>EV Load</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'2-6.6'!$O$6:$O$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1F4E-4C81-8606-3EABC73F3C0D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="958861311"/>
+        <c:axId val="958861727"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="958861311"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="24"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="958861727"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="958861727"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="958861311"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Line Flows </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10603268714212337"/>
+          <c:y val="0.12552325750915994"/>
+          <c:w val="0.87445264284088897"/>
+          <c:h val="0.70686283805827244"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>L-a</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4-6.6'!$E$32:$E$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4-6.6'!$F$32:$F$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>3.7318699999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.56168</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.84904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7949000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7550600000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.50448</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.36372</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8767199999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.2272800000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2298800000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.59274</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6906699999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3568199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.0443800000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.4632500000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.8510299999999997</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0563899999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.3437999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6765000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.7750700000000004</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.1211700000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.8693</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.83934</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.1252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9CC6-49B1-BAB0-EE74BBFC9558}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>L-b</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4-6.6'!$E$32:$E$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4-6.6'!$G$32:$G$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>2.9809000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5085000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2596800000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.1522300000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.6148199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3252100000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75968199999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.64391</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.5355999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.9690200000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5484499999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.6941299999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.0463100000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8594200000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.9126099999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.72865</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.76736</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.068199999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.1833999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.0669</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.378399999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.3584200000000006</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.4491899999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.96225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9CC6-49B1-BAB0-EE74BBFC9558}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>L-c</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4-6.6'!$E$32:$E$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4-6.6'!$H$32:$H$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.7729100000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37722899999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5254699999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7935399999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.79074</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5363</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.401501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.2490399999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.6256300000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.6442999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.59274</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.38768</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.1468699999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.74064200000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.15673</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.3213300000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.64805999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4.3522400000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6765000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.6956199999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2287499999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.8693</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.6993299999999998</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.63775499999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9CC6-49B1-BAB0-EE74BBFC9558}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>L-d</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4-6.6'!$E$32:$E$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4-6.6'!$I$32:$I$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1.2034100000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5758700000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51133700000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91949700000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.36162</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.60883399999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.401501</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0833699999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.47804600000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1398299999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.05155</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0284599999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.3754</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9657</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.15673</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6436999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.76736</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.89144</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.13775200000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.7430299999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.3991499999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5217400000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.849186</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.63775499999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9CC6-49B1-BAB0-EE74BBFC9558}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1080837663"/>
+        <c:axId val="1080843071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1080837663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Hr</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1080843071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1080843071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Load (kW)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1080837663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.67789661192082329"/>
+          <c:y val="0.90401632639192298"/>
+          <c:w val="0.27577246034450026"/>
+          <c:h val="6.6826122502581131E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>July</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> 1st Total Loads</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10603268714212337"/>
+          <c:y val="0.12552325750915994"/>
+          <c:w val="0.87445264284088897"/>
+          <c:h val="0.70686283805827244"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Home Loads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4-6.6'!$E$32:$E$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4-6.6'!$P$6:$P$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>13.2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2EEA-497F-92CD-14C74C68EAA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>EV Loads</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'4-6.6'!$E$32:$E$55</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'4-6.6'!$V$6:$V$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>8.2573000000000008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.055498</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9639160000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4289129999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.950539</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.8944039999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1234000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.92063300000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8253129999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.3838869999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0146600000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.5577220000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.8992439999999995</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.3575140000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.0458499999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.409089999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.8237500000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>13.449480000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.043980000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.3049801999999993</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.876205000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>14.331329999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.8719539999999988</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.9089929999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2EEA-497F-92CD-14C74C68EAA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1080837663"/>
+        <c:axId val="1080843071"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1080837663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Hr</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1080843071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1080843071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Load (kW)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1080837663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.67789661192082329"/>
+          <c:y val="0.90401632639192298"/>
+          <c:w val="0.27577246034450026"/>
+          <c:h val="6.6826122502581131E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>610960</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>107496</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>421820</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>423181</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>164647</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -420,10 +4710,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S29"/>
+  <dimension ref="B2:V29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U6" sqref="U6:X30"/>
+      <selection activeCell="AE32" sqref="AE32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,85 +4723,94 @@
     <col min="5" max="5" width="1.28515625" customWidth="1"/>
     <col min="6" max="9" width="6.7109375" customWidth="1"/>
     <col min="10" max="10" width="1.42578125" customWidth="1"/>
-    <col min="11" max="14" width="6.7109375" customWidth="1"/>
-    <col min="15" max="15" width="1.7109375" customWidth="1"/>
-    <col min="16" max="19" width="6.7109375" customWidth="1"/>
-    <col min="20" max="20" width="1.42578125" customWidth="1"/>
+    <col min="11" max="16" width="6.7109375" customWidth="1"/>
+    <col min="17" max="17" width="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="22" width="6.7109375" customWidth="1"/>
+    <col min="23" max="23" width="1.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>2</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-    </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="7"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>6.6</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-    </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="7"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="K4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="P4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-    </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="K4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="R4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
       <c r="C5" s="4" t="s">
         <v>1</v>
       </c>
@@ -545,20 +4844,23 @@
         <v>3</v>
       </c>
       <c r="O5" s="4"/>
-      <c r="P5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
         <v>1</v>
       </c>
-      <c r="R5" s="4">
+      <c r="T5" s="4">
         <v>2</v>
       </c>
-      <c r="S5" s="4">
+      <c r="U5" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V5" s="4"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>0</v>
       </c>
@@ -594,21 +4896,32 @@
       <c r="N6" s="3">
         <v>0</v>
       </c>
-      <c r="O6" s="2"/>
-      <c r="P6" s="3">
+      <c r="O6" s="3">
+        <f>SUM(K6:N6)</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
         <v>1.54453</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="S6" s="9">
         <v>3.7496</v>
       </c>
-      <c r="R6" s="3">
+      <c r="T6" s="10">
         <v>1.77749</v>
       </c>
-      <c r="S6" s="3">
+      <c r="U6" s="10">
         <v>1.1856800000000001</v>
       </c>
-    </row>
-    <row r="7" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V6" s="10">
+        <f>SUM(R6:U6)</f>
+        <v>8.2573000000000008</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>1</v>
       </c>
@@ -644,21 +4957,32 @@
       <c r="N7" s="3">
         <v>0</v>
       </c>
-      <c r="O7" s="2"/>
-      <c r="P7" s="3">
+      <c r="O7" s="3">
+        <f t="shared" ref="O7:O29" si="0">SUM(K7:N7)</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="2">
+        <v>1</v>
+      </c>
+      <c r="R7" s="3">
         <v>3.9853200000000002</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="S7" s="9">
         <v>3.18445</v>
       </c>
-      <c r="R7" s="3">
+      <c r="T7" s="10">
         <v>0.93262800000000001</v>
       </c>
-      <c r="S7" s="3">
+      <c r="U7" s="10">
         <v>1.9531000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V7" s="10">
+        <f t="shared" ref="V7:V29" si="1">SUM(R7:U7)</f>
+        <v>10.055498</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>2</v>
       </c>
@@ -694,21 +5018,32 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-      <c r="O8" s="2"/>
-      <c r="P8" s="3">
+      <c r="O8" s="3">
+        <f t="shared" si="0"/>
+        <v>13.2</v>
+      </c>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="2">
+        <v>2</v>
+      </c>
+      <c r="R8" s="3">
         <v>0.45519199999999999</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="9">
         <v>0.32357399999999997</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="10">
         <v>1.1710199999999999</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="10">
         <v>2.0141300000000002</v>
       </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V8" s="10">
+        <f t="shared" si="1"/>
+        <v>3.9639160000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>3</v>
       </c>
@@ -744,21 +5079,32 @@
       <c r="N9" s="3">
         <v>0</v>
       </c>
-      <c r="O9" s="2"/>
-      <c r="P9" s="3">
+      <c r="O9" s="3">
+        <f t="shared" si="0"/>
+        <v>6.6</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="2">
+        <v>3</v>
+      </c>
+      <c r="R9" s="3">
         <v>1.08179</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="9">
         <v>1.00136</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="10">
         <v>1.4717199999999999</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="10">
         <v>0.87404300000000001</v>
       </c>
-    </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V9" s="10">
+        <f t="shared" si="1"/>
+        <v>4.4289129999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <v>4</v>
       </c>
@@ -794,21 +5140,32 @@
       <c r="N10" s="3">
         <v>0</v>
       </c>
-      <c r="O10" s="2"/>
-      <c r="P10" s="3">
+      <c r="O10" s="3">
+        <f t="shared" si="0"/>
+        <v>6.6</v>
+      </c>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="2">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3">
         <v>1.18066</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="9">
         <v>2.9643199999999998</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="10">
         <v>0.65319899999999997</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="10">
         <v>2.1523599999999998</v>
       </c>
-    </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V10" s="10">
+        <f t="shared" si="1"/>
+        <v>6.950539</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>5</v>
       </c>
@@ -844,21 +5201,32 @@
       <c r="N11" s="3">
         <v>0</v>
       </c>
-      <c r="O11" s="2"/>
-      <c r="P11" s="3">
+      <c r="O11" s="3">
+        <f t="shared" si="0"/>
+        <v>6.6</v>
+      </c>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="2">
+        <v>5</v>
+      </c>
+      <c r="R11" s="3">
         <v>0.66470700000000005</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="S11" s="9">
         <v>1.96818</v>
       </c>
-      <c r="R11" s="3">
+      <c r="T11" s="10">
         <v>1.33405</v>
       </c>
-      <c r="S11" s="3">
+      <c r="U11" s="10">
         <v>0.92746700000000004</v>
       </c>
-    </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V11" s="10">
+        <f t="shared" si="1"/>
+        <v>4.8944039999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <v>6</v>
       </c>
@@ -894,21 +5262,32 @@
       <c r="N12" s="3">
         <v>0</v>
       </c>
-      <c r="O12" s="2"/>
-      <c r="P12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="3">
+      <c r="O12" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="2">
+        <v>6</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="9">
         <v>1.76522</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="10">
         <v>0.35818</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U12" s="10">
+        <v>0</v>
+      </c>
+      <c r="V12" s="10">
+        <f t="shared" si="1"/>
+        <v>2.1234000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>7</v>
       </c>
@@ -944,21 +5323,32 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="2"/>
-      <c r="P13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="3">
+      <c r="O13" s="3">
+        <f t="shared" si="0"/>
+        <v>13.2</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="2">
+        <v>7</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="9">
         <v>0.62767700000000004</v>
       </c>
-      <c r="R13" s="3">
+      <c r="T13" s="10">
         <v>0.12728600000000001</v>
       </c>
-      <c r="S13" s="3">
+      <c r="U13" s="10">
         <v>0.16567000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V13" s="10">
+        <f t="shared" si="1"/>
+        <v>0.92063300000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <v>8</v>
       </c>
@@ -994,21 +5384,32 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="2"/>
-      <c r="P14" s="3">
+      <c r="O14" s="3">
+        <f t="shared" si="0"/>
+        <v>13.2</v>
+      </c>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="2">
+        <v>8</v>
+      </c>
+      <c r="R14" s="3">
         <v>0.66243700000000005</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="9">
         <v>1.60165</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="10">
         <v>0.45755600000000002</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="10">
         <v>3.1036700000000002</v>
       </c>
-    </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V14" s="10">
+        <f t="shared" si="1"/>
+        <v>5.8253129999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>9</v>
       </c>
@@ -1044,21 +5445,32 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-      <c r="O15" s="2"/>
-      <c r="P15" s="3">
+      <c r="O15" s="3">
+        <f t="shared" si="0"/>
+        <v>6.6</v>
+      </c>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="2">
+        <v>9</v>
+      </c>
+      <c r="R15" s="3">
         <v>0.78499099999999999</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="S15" s="9">
         <v>0.58558600000000005</v>
       </c>
-      <c r="R15" s="3">
+      <c r="T15" s="10">
         <v>3.5088499999999998</v>
       </c>
-      <c r="S15" s="3">
+      <c r="U15" s="10">
         <v>1.5044599999999999</v>
       </c>
-    </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V15" s="10">
+        <f t="shared" si="1"/>
+        <v>6.3838869999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <v>10</v>
       </c>
@@ -1094,21 +5506,32 @@
       <c r="N16" s="3">
         <v>0</v>
       </c>
-      <c r="O16" s="2"/>
-      <c r="P16" s="3">
+      <c r="O16" s="3">
+        <f t="shared" si="0"/>
+        <v>6.6</v>
+      </c>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="2">
+        <v>10</v>
+      </c>
+      <c r="R16" s="3">
         <v>0.47346300000000002</v>
       </c>
-      <c r="Q16" s="3">
-        <v>0</v>
-      </c>
-      <c r="R16" s="3">
-        <v>0</v>
-      </c>
-      <c r="S16" s="3">
+      <c r="S16" s="9">
+        <v>0</v>
+      </c>
+      <c r="T16" s="10">
+        <v>0</v>
+      </c>
+      <c r="U16" s="10">
         <v>0.54119700000000004</v>
       </c>
-    </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V16" s="10">
+        <f t="shared" si="1"/>
+        <v>1.0146600000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>11</v>
       </c>
@@ -1144,21 +5567,32 @@
       <c r="N17" s="3">
         <v>0</v>
       </c>
-      <c r="O17" s="2"/>
-      <c r="P17" s="3">
+      <c r="O17" s="3">
+        <f t="shared" si="0"/>
+        <v>6.6</v>
+      </c>
+      <c r="P17" s="3"/>
+      <c r="Q17" s="2">
+        <v>11</v>
+      </c>
+      <c r="R17" s="3">
         <v>0.77291200000000004</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="9">
         <v>5.3029900000000003</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="10">
         <v>1.06568</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="10">
         <v>2.41614</v>
       </c>
-    </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V17" s="10">
+        <f t="shared" si="1"/>
+        <v>9.5577220000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>12</v>
       </c>
@@ -1194,21 +5628,32 @@
       <c r="N18" s="3">
         <v>0</v>
       </c>
-      <c r="O18" s="2"/>
-      <c r="P18" s="3">
+      <c r="O18" s="3">
+        <f t="shared" si="0"/>
+        <v>6.6</v>
+      </c>
+      <c r="P18" s="3"/>
+      <c r="Q18" s="2">
+        <v>12</v>
+      </c>
+      <c r="R18" s="3">
         <v>1.0961099999999999</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="9">
         <v>1.2099500000000001</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="10">
         <v>3.8217099999999999</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="10">
         <v>0.77147399999999999</v>
       </c>
-    </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V18" s="10">
+        <f t="shared" si="1"/>
+        <v>6.8992439999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>13</v>
       </c>
@@ -1244,21 +5689,32 @@
       <c r="N19" s="3">
         <v>0</v>
       </c>
-      <c r="O19" s="2"/>
-      <c r="P19" s="3">
+      <c r="O19" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="2">
+        <v>13</v>
+      </c>
+      <c r="R19" s="3">
         <v>1.4537100000000001</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="S19" s="9">
         <v>3.3037399999999999</v>
       </c>
-      <c r="R19" s="3">
+      <c r="T19" s="10">
         <v>0.89372399999999996</v>
       </c>
-      <c r="S19" s="3">
+      <c r="U19" s="10">
         <v>2.70634</v>
       </c>
-    </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V19" s="10">
+        <f t="shared" si="1"/>
+        <v>8.3575140000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>14</v>
       </c>
@@ -1294,21 +5750,32 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="2"/>
-      <c r="P20" s="3">
+      <c r="O20" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="3"/>
+      <c r="Q20" s="2">
+        <v>14</v>
+      </c>
+      <c r="R20" s="3">
         <v>1.66998</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="9">
         <v>5.6199899999999996</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="10">
         <v>1.7558800000000001</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="U20" s="10">
+        <v>0</v>
+      </c>
+      <c r="V20" s="10">
+        <f t="shared" si="1"/>
+        <v>9.0458499999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>15</v>
       </c>
@@ -1344,21 +5811,32 @@
       <c r="N21" s="3">
         <v>0</v>
       </c>
-      <c r="O21" s="2"/>
-      <c r="P21" s="3">
+      <c r="O21" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="2">
+        <v>15</v>
+      </c>
+      <c r="R21" s="3">
         <v>3.8294199999999998</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="9">
         <v>3.5297000000000001</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="10">
         <v>3.08494</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="10">
         <v>4.9650299999999996</v>
       </c>
-    </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V21" s="10">
+        <f t="shared" si="1"/>
+        <v>15.409089999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>16</v>
       </c>
@@ -1394,21 +5872,32 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="2"/>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="O22" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="3"/>
+      <c r="Q22" s="2">
+        <v>16</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="9">
         <v>2.4083299999999999</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
-      <c r="S22" s="3">
+      <c r="T22" s="10">
+        <v>0</v>
+      </c>
+      <c r="U22" s="10">
         <v>2.4154200000000001</v>
       </c>
-    </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V22" s="10">
+        <f t="shared" si="1"/>
+        <v>4.8237500000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>17</v>
       </c>
@@ -1444,21 +5933,32 @@
       <c r="N23" s="3">
         <v>0</v>
       </c>
-      <c r="O23" s="2"/>
-      <c r="P23" s="3">
+      <c r="O23" s="3">
+        <f t="shared" si="0"/>
+        <v>6.6</v>
+      </c>
+      <c r="P23" s="3"/>
+      <c r="Q23" s="2">
+        <v>17</v>
+      </c>
+      <c r="R23" s="3">
         <v>1.6375200000000001</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="9">
         <v>2.9915600000000002</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="10">
         <v>2.5767099999999998</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="10">
         <v>6.24369</v>
       </c>
-    </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V23" s="10">
+        <f t="shared" si="1"/>
+        <v>13.449480000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>18</v>
       </c>
@@ -1494,21 +5994,32 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="2"/>
-      <c r="P24" s="3">
+      <c r="O24" s="3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="3"/>
+      <c r="Q24" s="2">
+        <v>18</v>
+      </c>
+      <c r="R24" s="3">
         <v>4.1840799999999998</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
+      <c r="S24" s="9">
+        <v>0</v>
+      </c>
+      <c r="T24" s="10">
         <v>4.3211500000000003</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="10">
         <v>1.5387500000000001</v>
       </c>
-    </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V24" s="10">
+        <f t="shared" si="1"/>
+        <v>10.043980000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>19</v>
       </c>
@@ -1544,21 +6055,32 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="2"/>
-      <c r="P25" s="3">
+      <c r="O25" s="3">
+        <f t="shared" si="0"/>
+        <v>13.2</v>
+      </c>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="2">
+        <v>19</v>
+      </c>
+      <c r="R25" s="3">
         <v>6.3040200000000005E-2</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="S25" s="9">
         <v>1.07945</v>
       </c>
-      <c r="R25" s="3">
+      <c r="T25" s="10">
         <v>3.40944</v>
       </c>
-      <c r="S25" s="3">
+      <c r="U25" s="10">
         <v>3.75305</v>
       </c>
-    </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V25" s="10">
+        <f t="shared" si="1"/>
+        <v>8.3049801999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>20</v>
       </c>
@@ -1594,21 +6116,32 @@
       <c r="N26" s="3">
         <v>0</v>
       </c>
-      <c r="O26" s="2"/>
-      <c r="P26" s="3">
+      <c r="O26" s="3">
+        <f t="shared" si="0"/>
+        <v>13.2</v>
+      </c>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="2">
+        <v>20</v>
+      </c>
+      <c r="R26" s="3">
         <v>0.97668500000000003</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="9">
         <v>2.89242</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="10">
         <v>4.6943599999999996</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="10">
         <v>3.3127399999999998</v>
       </c>
-    </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V26" s="10">
+        <f t="shared" si="1"/>
+        <v>11.876205000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>21</v>
       </c>
@@ -1644,21 +6177,32 @@
       <c r="N27" s="3">
         <v>0</v>
       </c>
-      <c r="O27" s="2"/>
-      <c r="P27" s="3">
+      <c r="O27" s="3">
+        <f t="shared" si="0"/>
+        <v>13.2</v>
+      </c>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="2">
+        <v>21</v>
+      </c>
+      <c r="R27" s="3">
         <v>8.7036099999999994</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
+      <c r="S27" s="9">
+        <v>0</v>
+      </c>
+      <c r="T27" s="10">
         <v>4.2801600000000004</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="10">
         <v>1.3475600000000001</v>
       </c>
-    </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V27" s="10">
+        <f t="shared" si="1"/>
+        <v>14.331329999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>22</v>
       </c>
@@ -1694,21 +6238,32 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="2"/>
-      <c r="P28" s="3">
+      <c r="O28" s="3">
+        <f t="shared" si="0"/>
+        <v>13.2</v>
+      </c>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="2">
+        <v>22</v>
+      </c>
+      <c r="R28" s="3">
         <v>4.1834199999999999</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="S28" s="9">
         <v>0.140014</v>
       </c>
-      <c r="R28" s="3">
-        <v>0</v>
-      </c>
-      <c r="S28" s="3">
+      <c r="T28" s="10">
+        <v>0</v>
+      </c>
+      <c r="U28" s="10">
         <v>4.5485199999999999</v>
       </c>
-    </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="V28" s="10">
+        <f t="shared" si="1"/>
+        <v>8.8719539999999988</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>23</v>
       </c>
@@ -1744,18 +6299,29 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-      <c r="O29" s="2"/>
-      <c r="P29" s="3">
+      <c r="O29" s="3">
+        <f t="shared" si="0"/>
+        <v>6.6</v>
+      </c>
+      <c r="P29" s="3"/>
+      <c r="Q29" s="2">
+        <v>23</v>
+      </c>
+      <c r="R29" s="3">
         <v>0.42155300000000001</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="S29" s="9">
         <v>2.4874399999999999</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
-      </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="T29" s="10">
+        <v>0</v>
+      </c>
+      <c r="U29" s="10">
+        <v>0</v>
+      </c>
+      <c r="V29" s="10">
+        <f t="shared" si="1"/>
+        <v>2.9089929999999997</v>
       </c>
     </row>
   </sheetData>
@@ -1763,11 +6329,11 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="K4:N4"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="C2:S2"/>
-    <mergeCell ref="C3:S3"/>
+    <mergeCell ref="R4:U4"/>
+    <mergeCell ref="C2:U2"/>
+    <mergeCell ref="C3:U3"/>
   </mergeCells>
-  <conditionalFormatting sqref="K6:N29">
+  <conditionalFormatting sqref="K6:P29">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -1851,7 +6417,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P6:P29">
+  <conditionalFormatting sqref="R6:R29">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -1863,7 +6429,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q6:Q29">
+  <conditionalFormatting sqref="S6:S29">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -1875,7 +6441,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R6:R29">
+  <conditionalFormatting sqref="T6:T29">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -1887,7 +6453,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S6:S29">
+  <conditionalFormatting sqref="U6:V29">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -1901,10 +6467,2223 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:V55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD42" sqref="AD42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.7109375" customWidth="1"/>
+    <col min="5" max="5" width="1.28515625" customWidth="1"/>
+    <col min="6" max="10" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="1.42578125" customWidth="1"/>
+    <col min="12" max="16" width="6.7109375" customWidth="1"/>
+    <col min="17" max="17" width="2" customWidth="1"/>
+    <col min="18" max="22" width="6.7109375" customWidth="1"/>
+    <col min="23" max="23" width="1.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="7"/>
+    </row>
+    <row r="3" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="7"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="1"/>
+      <c r="L4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="1"/>
+      <c r="R4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>3</v>
+      </c>
+      <c r="I5" s="4">
+        <v>4</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4">
+        <v>2</v>
+      </c>
+      <c r="O5" s="4">
+        <v>3</v>
+      </c>
+      <c r="P5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4">
+        <v>1</v>
+      </c>
+      <c r="T5" s="4">
+        <v>2</v>
+      </c>
+      <c r="U5" s="4">
+        <v>3</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>8.2573000000000008</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5.1195300000000001</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
+        <v>-3.7318699999999998</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-2.9809000000000001</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1.7729100000000001E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>-1.2034100000000001</v>
+      </c>
+      <c r="J6" s="3">
+        <f>SUM(F6:I6)</f>
+        <v>-7.8984508999999994</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <f>SUM(L6:O6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="3">
+        <v>1.54453</v>
+      </c>
+      <c r="S6" s="3">
+        <v>3.7496</v>
+      </c>
+      <c r="T6" s="3">
+        <v>1.77749</v>
+      </c>
+      <c r="U6" s="3">
+        <v>1.1856800000000001</v>
+      </c>
+      <c r="V6" s="3">
+        <f>SUM(R6:U6)</f>
+        <v>8.2573000000000008</v>
+      </c>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>10.0555</v>
+      </c>
+      <c r="D7" s="3">
+        <v>6.2344099999999996</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
+        <v>-3.56168</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-2.5085000000000002</v>
+      </c>
+      <c r="H7" s="3">
+        <v>-0.37722899999999998</v>
+      </c>
+      <c r="I7" s="3">
+        <v>-1.5758700000000001</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" ref="J7:J30" si="0">SUM(F7:I7)</f>
+        <v>-8.0232790000000005</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" ref="P7:P29" si="1">SUM(L7:O7)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="3">
+        <v>3.9853200000000002</v>
+      </c>
+      <c r="S7" s="3">
+        <v>3.18445</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0.93262800000000001</v>
+      </c>
+      <c r="U7" s="3">
+        <v>1.9531000000000001</v>
+      </c>
+      <c r="V7" s="3">
+        <f t="shared" ref="V7:V29" si="2">SUM(R7:U7)</f>
+        <v>10.055498</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="3">
+        <v>17.163900000000002</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10.6416</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
+        <v>-2.84904</v>
+      </c>
+      <c r="G8" s="3">
+        <v>-7.2596800000000004</v>
+      </c>
+      <c r="H8" s="3">
+        <v>-2.5254699999999999</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0.51133700000000004</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="0"/>
+        <v>-12.122853000000001</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="1"/>
+        <v>13.2</v>
+      </c>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="3">
+        <v>0.45519199999999999</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0.32357399999999997</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1.1710199999999999</v>
+      </c>
+      <c r="U8" s="3">
+        <v>2.0141300000000002</v>
+      </c>
+      <c r="V8" s="3">
+        <f t="shared" si="2"/>
+        <v>3.9639160000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <v>11.0289</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6.8379300000000001</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3">
+        <v>-2.7949000000000002</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-7.1522300000000003</v>
+      </c>
+      <c r="H9" s="3">
+        <v>-1.7935399999999999</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.91949700000000001</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="0"/>
+        <v>-10.821173000000002</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="1"/>
+        <v>6.6</v>
+      </c>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="3">
+        <v>1.08179</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1.00136</v>
+      </c>
+      <c r="T9" s="3">
+        <v>1.4717199999999999</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0.87404300000000001</v>
+      </c>
+      <c r="V9" s="3">
+        <f t="shared" si="2"/>
+        <v>4.4289129999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>13.5505</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8.4013299999999997</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3">
+        <v>-4.7550600000000003</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-7.6148199999999999</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-1.79074</v>
+      </c>
+      <c r="I10" s="3">
+        <v>-0.36162</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="0"/>
+        <v>-14.52224</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="1"/>
+        <v>6.6</v>
+      </c>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="3">
+        <v>1.18066</v>
+      </c>
+      <c r="S10" s="3">
+        <v>2.9643199999999998</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0.65319899999999997</v>
+      </c>
+      <c r="U10" s="3">
+        <v>2.1523599999999998</v>
+      </c>
+      <c r="V10" s="3">
+        <f t="shared" si="2"/>
+        <v>6.950539</v>
+      </c>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B11" s="2">
+        <v>5</v>
+      </c>
+      <c r="C11" s="3">
+        <v>11.494400000000001</v>
+      </c>
+      <c r="D11" s="3">
+        <v>7.1265299999999998</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3">
+        <v>-3.50448</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-7.3252100000000002</v>
+      </c>
+      <c r="H11" s="3">
+        <v>-1.5363</v>
+      </c>
+      <c r="I11" s="3">
+        <v>0.60883399999999999</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="0"/>
+        <v>-11.757156</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0</v>
+      </c>
+      <c r="N11" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="1"/>
+        <v>6.6</v>
+      </c>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="3">
+        <v>0.66470700000000005</v>
+      </c>
+      <c r="S11" s="3">
+        <v>1.96818</v>
+      </c>
+      <c r="T11" s="3">
+        <v>1.33405</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0.92746700000000004</v>
+      </c>
+      <c r="V11" s="3">
+        <f t="shared" si="2"/>
+        <v>4.8944039999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B12" s="2">
+        <v>6</v>
+      </c>
+      <c r="C12" s="3">
+        <v>2.1234000000000002</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.3165100000000001</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3">
+        <v>-1.36372</v>
+      </c>
+      <c r="G12" s="3">
+        <v>-0.75968199999999997</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.401501</v>
+      </c>
+      <c r="I12" s="3">
+        <v>-0.401501</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="0"/>
+        <v>-2.123402</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>1.76522</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0.35818</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1234000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B13" s="2">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3">
+        <v>14.1206</v>
+      </c>
+      <c r="D13" s="3">
+        <v>8.7547899999999998</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3">
+        <v>-1.8767199999999999</v>
+      </c>
+      <c r="G13" s="3">
+        <v>-5.64391</v>
+      </c>
+      <c r="H13" s="3">
+        <v>-1.2490399999999999</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1.0833699999999999</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="0"/>
+        <v>-7.6862999999999992</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <f t="shared" si="1"/>
+        <v>13.2</v>
+      </c>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0.62767700000000004</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0.12728600000000001</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0.16567000000000001</v>
+      </c>
+      <c r="V13" s="3">
+        <f t="shared" si="2"/>
+        <v>0.92063300000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>8</v>
+      </c>
+      <c r="C14" s="3">
+        <v>19.025300000000001</v>
+      </c>
+      <c r="D14" s="3">
+        <v>11.7957</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3">
+        <v>-4.2272800000000004</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-7.5355999999999996</v>
+      </c>
+      <c r="H14" s="3">
+        <v>-2.6256300000000001</v>
+      </c>
+      <c r="I14" s="3">
+        <v>-0.47804600000000003</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="0"/>
+        <v>-14.866556000000001</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" si="1"/>
+        <v>13.2</v>
+      </c>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="3">
+        <v>0.66243700000000005</v>
+      </c>
+      <c r="S14" s="3">
+        <v>1.60165</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0.45755600000000002</v>
+      </c>
+      <c r="U14" s="3">
+        <v>3.1036700000000002</v>
+      </c>
+      <c r="V14" s="3">
+        <f t="shared" si="2"/>
+        <v>5.8253129999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B15" s="2">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3">
+        <v>12.9839</v>
+      </c>
+      <c r="D15" s="3">
+        <v>8.0500100000000003</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3">
+        <v>-3.2298800000000001</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-8.9690200000000004</v>
+      </c>
+      <c r="H15" s="3">
+        <v>-2.6442999999999999</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1.1398299999999999</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="0"/>
+        <v>-13.70337</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <f t="shared" si="1"/>
+        <v>6.6</v>
+      </c>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="3">
+        <v>0.78499099999999999</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0.58558600000000005</v>
+      </c>
+      <c r="T15" s="3">
+        <v>3.5088499999999998</v>
+      </c>
+      <c r="U15" s="3">
+        <v>1.5044599999999999</v>
+      </c>
+      <c r="V15" s="3">
+        <f t="shared" si="2"/>
+        <v>6.3838869999999996</v>
+      </c>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B16" s="2">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3">
+        <v>7.6146599999999998</v>
+      </c>
+      <c r="D16" s="3">
+        <v>4.7210900000000002</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3">
+        <v>-1.59274</v>
+      </c>
+      <c r="G16" s="3">
+        <v>-5.5484499999999999</v>
+      </c>
+      <c r="H16" s="3">
+        <v>-1.59274</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1.05155</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="0"/>
+        <v>-7.6823800000000011</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3">
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0</v>
+      </c>
+      <c r="N16" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="3">
+        <f t="shared" si="1"/>
+        <v>6.6</v>
+      </c>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="3">
+        <v>0.47346300000000002</v>
+      </c>
+      <c r="S16" s="3">
+        <v>0</v>
+      </c>
+      <c r="T16" s="3">
+        <v>0</v>
+      </c>
+      <c r="U16" s="3">
+        <v>0.54119700000000004</v>
+      </c>
+      <c r="V16" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0146600000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3">
+        <v>16.157699999999998</v>
+      </c>
+      <c r="D17" s="3">
+        <v>10.017799999999999</v>
+      </c>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3">
+        <v>-6.6906699999999999</v>
+      </c>
+      <c r="G17" s="3">
+        <v>-8.6941299999999995</v>
+      </c>
+      <c r="H17" s="3">
+        <v>-1.38768</v>
+      </c>
+      <c r="I17" s="3">
+        <v>-1.0284599999999999</v>
+      </c>
+      <c r="J17" s="3">
+        <f t="shared" si="0"/>
+        <v>-17.800939999999997</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+      <c r="P17" s="3">
+        <f t="shared" si="1"/>
+        <v>6.6</v>
+      </c>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="3">
+        <v>0.77291200000000004</v>
+      </c>
+      <c r="S17" s="3">
+        <v>5.3029900000000003</v>
+      </c>
+      <c r="T17" s="3">
+        <v>1.06568</v>
+      </c>
+      <c r="U17" s="3">
+        <v>2.41614</v>
+      </c>
+      <c r="V17" s="3">
+        <f t="shared" si="2"/>
+        <v>9.5577220000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3">
+        <v>13.4992</v>
+      </c>
+      <c r="D18" s="3">
+        <v>8.3695299999999992</v>
+      </c>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3">
+        <v>-3.3568199999999999</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-9.0463100000000001</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-2.1468699999999998</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1.3754</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" si="0"/>
+        <v>-13.174600000000002</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
+        <f t="shared" si="1"/>
+        <v>6.6</v>
+      </c>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="3">
+        <v>1.0961099999999999</v>
+      </c>
+      <c r="S18" s="3">
+        <v>1.2099500000000001</v>
+      </c>
+      <c r="T18" s="3">
+        <v>3.8217099999999999</v>
+      </c>
+      <c r="U18" s="3">
+        <v>0.77147399999999999</v>
+      </c>
+      <c r="V18" s="3">
+        <f t="shared" si="2"/>
+        <v>6.8992439999999995</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3">
+        <v>8.3575199999999992</v>
+      </c>
+      <c r="D19" s="3">
+        <v>5.1816599999999999</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3">
+        <v>-4.0443800000000003</v>
+      </c>
+      <c r="G19" s="3">
+        <v>-2.8594200000000001</v>
+      </c>
+      <c r="H19" s="3">
+        <v>-0.74064200000000002</v>
+      </c>
+      <c r="I19" s="3">
+        <v>-1.9657</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="0"/>
+        <v>-9.6101419999999997</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3">
+        <v>0</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3">
+        <v>0</v>
+      </c>
+      <c r="P19" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="3">
+        <v>1.4537100000000001</v>
+      </c>
+      <c r="S19" s="3">
+        <v>3.3037399999999999</v>
+      </c>
+      <c r="T19" s="3">
+        <v>0.89372399999999996</v>
+      </c>
+      <c r="U19" s="3">
+        <v>2.70634</v>
+      </c>
+      <c r="V19" s="3">
+        <f t="shared" si="2"/>
+        <v>8.3575140000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3">
+        <v>9.0458499999999997</v>
+      </c>
+      <c r="D20" s="3">
+        <v>5.6084300000000002</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3">
+        <v>-4.4632500000000004</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-2.9126099999999999</v>
+      </c>
+      <c r="H20" s="3">
+        <v>1.15673</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-1.15673</v>
+      </c>
+      <c r="J20" s="3">
+        <f t="shared" si="0"/>
+        <v>-7.3758599999999994</v>
+      </c>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="3">
+        <v>1.66998</v>
+      </c>
+      <c r="S20" s="3">
+        <v>5.6199899999999996</v>
+      </c>
+      <c r="T20" s="3">
+        <v>1.7558800000000001</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <f t="shared" si="2"/>
+        <v>9.0458499999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>15</v>
+      </c>
+      <c r="C21" s="3">
+        <v>15.4091</v>
+      </c>
+      <c r="D21" s="3">
+        <v>9.5536399999999997</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3">
+        <v>-5.8510299999999997</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-5.72865</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-2.3213300000000001</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-2.6436999999999999</v>
+      </c>
+      <c r="J21" s="3">
+        <f t="shared" si="0"/>
+        <v>-16.544709999999998</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="3">
+        <v>3.8294199999999998</v>
+      </c>
+      <c r="S21" s="3">
+        <v>3.5297000000000001</v>
+      </c>
+      <c r="T21" s="3">
+        <v>3.08494</v>
+      </c>
+      <c r="U21" s="3">
+        <v>4.9650299999999996</v>
+      </c>
+      <c r="V21" s="3">
+        <f t="shared" si="2"/>
+        <v>15.409089999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>16</v>
+      </c>
+      <c r="C22" s="3">
+        <v>4.8237399999999999</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2.99072</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3">
+        <v>-3.0563899999999999</v>
+      </c>
+      <c r="G22" s="3">
+        <v>-1.76736</v>
+      </c>
+      <c r="H22" s="3">
+        <v>-0.64805999999999997</v>
+      </c>
+      <c r="I22" s="3">
+        <v>-1.76736</v>
+      </c>
+      <c r="J22" s="3">
+        <f t="shared" si="0"/>
+        <v>-7.2391700000000005</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>2.4083299999999999</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>2.4154200000000001</v>
+      </c>
+      <c r="V22" s="3">
+        <f t="shared" si="2"/>
+        <v>4.8237500000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>17</v>
+      </c>
+      <c r="C23" s="3">
+        <v>20.049499999999998</v>
+      </c>
+      <c r="D23" s="3">
+        <v>12.4307</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3">
+        <v>-7.3437999999999999</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-11.068199999999999</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-4.3522400000000001</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-1.89144</v>
+      </c>
+      <c r="J23" s="3">
+        <f t="shared" si="0"/>
+        <v>-24.65568</v>
+      </c>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
+        <f t="shared" si="1"/>
+        <v>6.6</v>
+      </c>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="3">
+        <v>1.6375200000000001</v>
+      </c>
+      <c r="S23" s="3">
+        <v>2.9915600000000002</v>
+      </c>
+      <c r="T23" s="3">
+        <v>2.5767099999999998</v>
+      </c>
+      <c r="U23" s="3">
+        <v>6.24369</v>
+      </c>
+      <c r="V23" s="3">
+        <f t="shared" si="2"/>
+        <v>13.449480000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>18</v>
+      </c>
+      <c r="C24" s="3">
+        <v>10.044</v>
+      </c>
+      <c r="D24" s="3">
+        <v>6.2272699999999999</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3">
+        <v>-1.6765000000000001</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-4.1833999999999998</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-1.6765000000000001</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0.13775200000000001</v>
+      </c>
+      <c r="J24" s="3">
+        <f t="shared" si="0"/>
+        <v>-7.3986479999999997</v>
+      </c>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="3">
+        <v>4.1840799999999998</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>4.3211500000000003</v>
+      </c>
+      <c r="U24" s="3">
+        <v>1.5387500000000001</v>
+      </c>
+      <c r="V24" s="3">
+        <f t="shared" si="2"/>
+        <v>10.043980000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>19</v>
+      </c>
+      <c r="C25" s="3">
+        <v>21.504999999999999</v>
+      </c>
+      <c r="D25" s="3">
+        <v>13.3331</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3">
+        <v>-4.7750700000000004</v>
+      </c>
+      <c r="G25" s="3">
+        <v>-10.0669</v>
+      </c>
+      <c r="H25" s="3">
+        <v>-3.6956199999999999</v>
+      </c>
+      <c r="I25" s="3">
+        <v>-5.7430299999999997E-2</v>
+      </c>
+      <c r="J25" s="3">
+        <f t="shared" si="0"/>
+        <v>-18.595020300000002</v>
+      </c>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <f t="shared" si="1"/>
+        <v>13.2</v>
+      </c>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="3">
+        <v>6.3040200000000005E-2</v>
+      </c>
+      <c r="S25" s="3">
+        <v>1.07945</v>
+      </c>
+      <c r="T25" s="3">
+        <v>3.40944</v>
+      </c>
+      <c r="U25" s="3">
+        <v>3.75305</v>
+      </c>
+      <c r="V25" s="3">
+        <f t="shared" si="2"/>
+        <v>8.3049801999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>20</v>
+      </c>
+      <c r="C26" s="3">
+        <v>25.0762</v>
+      </c>
+      <c r="D26" s="3">
+        <v>15.5473</v>
+      </c>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3">
+        <v>-6.1211700000000002</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-11.378399999999999</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-3.2287499999999998</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-8.3991499999999997E-2</v>
+      </c>
+      <c r="J26" s="3">
+        <f t="shared" si="0"/>
+        <v>-20.812311499999996</v>
+      </c>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
+        <f t="shared" si="1"/>
+        <v>13.2</v>
+      </c>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="3">
+        <v>0.97668500000000003</v>
+      </c>
+      <c r="S26" s="3">
+        <v>2.89242</v>
+      </c>
+      <c r="T26" s="3">
+        <v>4.6943599999999996</v>
+      </c>
+      <c r="U26" s="3">
+        <v>3.3127399999999998</v>
+      </c>
+      <c r="V26" s="3">
+        <f t="shared" si="2"/>
+        <v>11.876205000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>21</v>
+      </c>
+      <c r="C27" s="3">
+        <v>27.531300000000002</v>
+      </c>
+      <c r="D27" s="3">
+        <v>17.069400000000002</v>
+      </c>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3">
+        <v>-2.8693</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-9.3584200000000006</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-2.8693</v>
+      </c>
+      <c r="I27" s="3">
+        <v>1.5217400000000001</v>
+      </c>
+      <c r="J27" s="3">
+        <f t="shared" si="0"/>
+        <v>-13.575280000000001</v>
+      </c>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
+        <f t="shared" si="1"/>
+        <v>13.2</v>
+      </c>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="3">
+        <v>8.7036099999999994</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>4.2801600000000004</v>
+      </c>
+      <c r="U27" s="3">
+        <v>1.3475600000000001</v>
+      </c>
+      <c r="V27" s="3">
+        <f t="shared" si="2"/>
+        <v>14.331329999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B28" s="2">
+        <v>22</v>
+      </c>
+      <c r="C28" s="3">
+        <v>22.071899999999999</v>
+      </c>
+      <c r="D28" s="3">
+        <v>13.6846</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3">
+        <v>-3.83934</v>
+      </c>
+      <c r="G28" s="3">
+        <v>-7.4491899999999998</v>
+      </c>
+      <c r="H28" s="3">
+        <v>-3.6993299999999998</v>
+      </c>
+      <c r="I28" s="3">
+        <v>-0.849186</v>
+      </c>
+      <c r="J28" s="3">
+        <f t="shared" si="0"/>
+        <v>-15.837045999999999</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <f t="shared" si="1"/>
+        <v>13.2</v>
+      </c>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="3">
+        <v>4.1834199999999999</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0.140014</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>4.5485199999999999</v>
+      </c>
+      <c r="V28" s="3">
+        <f t="shared" si="2"/>
+        <v>8.8719539999999988</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B29" s="2">
+        <v>23</v>
+      </c>
+      <c r="C29" s="3">
+        <v>9.5089900000000007</v>
+      </c>
+      <c r="D29" s="3">
+        <v>5.8955799999999998</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3">
+        <v>-3.1252</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-5.96225</v>
+      </c>
+      <c r="H29" s="3">
+        <v>-0.63775499999999996</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0.63775499999999996</v>
+      </c>
+      <c r="J29" s="3">
+        <f t="shared" si="0"/>
+        <v>-9.0874500000000005</v>
+      </c>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>6.6</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <f t="shared" si="1"/>
+        <v>6.6</v>
+      </c>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="3">
+        <v>0.42155300000000001</v>
+      </c>
+      <c r="S29" s="3">
+        <v>2.4874399999999999</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <f t="shared" si="2"/>
+        <v>2.9089929999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="B30" s="12"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+    </row>
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f>ABS(F6)</f>
+        <v>3.7318699999999998</v>
+      </c>
+      <c r="G32">
+        <f t="shared" ref="G32:I32" si="3">ABS(G6)</f>
+        <v>2.9809000000000001</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="3"/>
+        <v>1.7729100000000001E-2</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>1.2034100000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33:I33" si="4">ABS(F7)</f>
+        <v>3.56168</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="4"/>
+        <v>2.5085000000000002</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="4"/>
+        <v>0.37722899999999998</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="4"/>
+        <v>1.5758700000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E34" s="2">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ref="F34:I34" si="5">ABS(F8)</f>
+        <v>2.84904</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="5"/>
+        <v>7.2596800000000004</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="5"/>
+        <v>2.5254699999999999</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="5"/>
+        <v>0.51133700000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E35" s="2">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35:I35" si="6">ABS(F9)</f>
+        <v>2.7949000000000002</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="6"/>
+        <v>7.1522300000000003</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="6"/>
+        <v>1.7935399999999999</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="6"/>
+        <v>0.91949700000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E36" s="2">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ref="F36:I36" si="7">ABS(F10)</f>
+        <v>4.7550600000000003</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="7"/>
+        <v>7.6148199999999999</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="7"/>
+        <v>1.79074</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="7"/>
+        <v>0.36162</v>
+      </c>
+    </row>
+    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E37" s="2">
+        <v>5</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ref="F37:I37" si="8">ABS(F11)</f>
+        <v>3.50448</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="8"/>
+        <v>7.3252100000000002</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="8"/>
+        <v>1.5363</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="8"/>
+        <v>0.60883399999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E38" s="2">
+        <v>6</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ref="F38:I38" si="9">ABS(F12)</f>
+        <v>1.36372</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="9"/>
+        <v>0.75968199999999997</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="9"/>
+        <v>0.401501</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="9"/>
+        <v>0.401501</v>
+      </c>
+    </row>
+    <row r="39" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E39" s="2">
+        <v>7</v>
+      </c>
+      <c r="F39">
+        <f t="shared" ref="F39:I39" si="10">ABS(F13)</f>
+        <v>1.8767199999999999</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="10"/>
+        <v>5.64391</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="10"/>
+        <v>1.2490399999999999</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="10"/>
+        <v>1.0833699999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E40" s="2">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <f t="shared" ref="F40:I40" si="11">ABS(F14)</f>
+        <v>4.2272800000000004</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="11"/>
+        <v>7.5355999999999996</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="11"/>
+        <v>2.6256300000000001</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="11"/>
+        <v>0.47804600000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E41" s="2">
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <f t="shared" ref="F41:I41" si="12">ABS(F15)</f>
+        <v>3.2298800000000001</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="12"/>
+        <v>8.9690200000000004</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="12"/>
+        <v>2.6442999999999999</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="12"/>
+        <v>1.1398299999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E42" s="2">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ref="F42:I42" si="13">ABS(F16)</f>
+        <v>1.59274</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="13"/>
+        <v>5.5484499999999999</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="13"/>
+        <v>1.59274</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="13"/>
+        <v>1.05155</v>
+      </c>
+    </row>
+    <row r="43" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E43" s="2">
+        <v>11</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ref="F43:I43" si="14">ABS(F17)</f>
+        <v>6.6906699999999999</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="14"/>
+        <v>8.6941299999999995</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="14"/>
+        <v>1.38768</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="14"/>
+        <v>1.0284599999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E44" s="2">
+        <v>12</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ref="F44:I44" si="15">ABS(F18)</f>
+        <v>3.3568199999999999</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="15"/>
+        <v>9.0463100000000001</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="15"/>
+        <v>2.1468699999999998</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="15"/>
+        <v>1.3754</v>
+      </c>
+    </row>
+    <row r="45" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E45" s="2">
+        <v>13</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ref="F45:I45" si="16">ABS(F19)</f>
+        <v>4.0443800000000003</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="16"/>
+        <v>2.8594200000000001</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="16"/>
+        <v>0.74064200000000002</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="16"/>
+        <v>1.9657</v>
+      </c>
+    </row>
+    <row r="46" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E46" s="2">
+        <v>14</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ref="F46:I46" si="17">ABS(F20)</f>
+        <v>4.4632500000000004</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="17"/>
+        <v>2.9126099999999999</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="17"/>
+        <v>1.15673</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="17"/>
+        <v>1.15673</v>
+      </c>
+    </row>
+    <row r="47" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E47" s="2">
+        <v>15</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ref="F47:I47" si="18">ABS(F21)</f>
+        <v>5.8510299999999997</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="18"/>
+        <v>5.72865</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="18"/>
+        <v>2.3213300000000001</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="18"/>
+        <v>2.6436999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E48" s="2">
+        <v>16</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ref="F48:I48" si="19">ABS(F22)</f>
+        <v>3.0563899999999999</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="19"/>
+        <v>1.76736</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="19"/>
+        <v>0.64805999999999997</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="19"/>
+        <v>1.76736</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E49" s="2">
+        <v>17</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ref="F49:I49" si="20">ABS(F23)</f>
+        <v>7.3437999999999999</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="20"/>
+        <v>11.068199999999999</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="20"/>
+        <v>4.3522400000000001</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="20"/>
+        <v>1.89144</v>
+      </c>
+    </row>
+    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E50" s="2">
+        <v>18</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ref="F50:I50" si="21">ABS(F24)</f>
+        <v>1.6765000000000001</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="21"/>
+        <v>4.1833999999999998</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="21"/>
+        <v>1.6765000000000001</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="21"/>
+        <v>0.13775200000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E51" s="2">
+        <v>19</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ref="F51:I51" si="22">ABS(F25)</f>
+        <v>4.7750700000000004</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="22"/>
+        <v>10.0669</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="22"/>
+        <v>3.6956199999999999</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="22"/>
+        <v>5.7430299999999997E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E52" s="2">
+        <v>20</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ref="F52:I52" si="23">ABS(F26)</f>
+        <v>6.1211700000000002</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="23"/>
+        <v>11.378399999999999</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="23"/>
+        <v>3.2287499999999998</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="23"/>
+        <v>8.3991499999999997E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E53" s="2">
+        <v>21</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ref="F53:I53" si="24">ABS(F27)</f>
+        <v>2.8693</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="24"/>
+        <v>9.3584200000000006</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="24"/>
+        <v>2.8693</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="24"/>
+        <v>1.5217400000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E54" s="2">
+        <v>22</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ref="F54:I54" si="25">ABS(F28)</f>
+        <v>3.83934</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="25"/>
+        <v>7.4491899999999998</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="25"/>
+        <v>3.6993299999999998</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="25"/>
+        <v>0.849186</v>
+      </c>
+    </row>
+    <row r="55" spans="5:9" x14ac:dyDescent="0.25">
+      <c r="E55" s="2">
+        <v>23</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ref="F55:I55" si="26">ABS(F29)</f>
+        <v>3.1252</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="26"/>
+        <v>5.96225</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="26"/>
+        <v>0.63775499999999996</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="26"/>
+        <v>0.63775499999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C2:U2"/>
+    <mergeCell ref="C3:U3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="L4:O4"/>
+    <mergeCell ref="R4:U4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X29"/>
   <sheetViews>
@@ -1930,89 +8709,89 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>3</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>12.9</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="K4" s="1" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="K4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="P4" s="1" t="s">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="P4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="U4" s="1" t="s">
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="U4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -3783,12 +10562,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD20" sqref="AD20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3809,89 +10588,89 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>4</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
     </row>
     <row r="3" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>19.2</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
     </row>
     <row r="4" spans="2:24" x14ac:dyDescent="0.25">
-      <c r="C4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1"/>
-      <c r="F4" s="1" t="s">
+      <c r="C4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="K4" s="1" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="K4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="P4" s="1" t="s">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="P4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="U4" s="1" t="s">
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="U4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
     </row>
     <row r="5" spans="2:24" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
